--- a/panelsuivi_des_formations.xlsx
+++ b/panelsuivi_des_formations.xlsx
@@ -15,19 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>CATEGORIE</t>
-  </si>
-  <si>
-    <t>FORMATION</t>
-  </si>
-  <si>
-    <t>VISIBILITE</t>
-  </si>
-  <si>
-    <t>ACTIVITE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>MATRICULE</t>
   </si>
@@ -38,49 +26,121 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>Etat</t>
+    <t>EMAIL</t>
   </si>
   <si>
-    <t>DATE INSCRIPTION</t>
+    <t>DATE_RECRUTEMENT</t>
   </si>
   <si>
-    <t>DATE_REALISATION</t>
+    <t>CODE_EMPLOI</t>
   </si>
   <si>
-    <t>NOTE</t>
+    <t>LIBELLE_EMPLOI</t>
   </si>
   <si>
-    <t>TENTATIVE</t>
+    <t>CODE_POSTE</t>
   </si>
   <si>
-    <t>ETAT_FORMATION</t>
+    <t>DATE_PRISE_POSTE</t>
   </si>
   <si>
-    <t>Sous catégorie 1.1</t>
+    <t>CODE_UNITE</t>
   </si>
   <si>
-    <t>Cours Sous catégorie 1.1</t>
+    <t>ABSENCE</t>
   </si>
   <si>
-    <t>Quizz Cours SC11</t>
+    <t>DATE_DEBUT_ABSENCE</t>
+  </si>
+  <si>
+    <t>DATE_FIN_ABSENCE</t>
+  </si>
+  <si>
+    <t>MATRICULE_MANAGER</t>
+  </si>
+  <si>
+    <t>LIBELLE_DGA</t>
+  </si>
+  <si>
+    <t>LIBELLE_DIRECTION</t>
+  </si>
+  <si>
+    <t>LIBELLE_UNITE</t>
+  </si>
+  <si>
+    <t>DIRECTION</t>
+  </si>
+  <si>
+    <t>DGA</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>LIBELLE_POSTE</t>
+  </si>
+  <si>
+    <t>Visiteur anonyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>root@localhost</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>admin@ac2i.ma</t>
+  </si>
+  <si>
+    <t>Youssef</t>
+  </si>
+  <si>
+    <t>Elhanafi</t>
+  </si>
+  <si>
+    <t>yelhanafi@ac2i.ma</t>
+  </si>
+  <si>
+    <t>meriyem</t>
+  </si>
+  <si>
+    <t>marazki@ac2i.ma</t>
+  </si>
+  <si>
+    <t>Lionel</t>
+  </si>
+  <si>
+    <t>lmissigor@ac2i.ma</t>
+  </si>
+  <si>
+    <t>siham</t>
+  </si>
+  <si>
+    <t>sezziouani@ac2i.ma</t>
   </si>
   <si>
     <t>zakaria</t>
   </si>
   <si>
-    <t>Actif</t>
-  </si>
-  <si>
-    <t>26/02/2019</t>
-  </si>
-  <si>
-    <t>Non Terminé</t>
+    <t>zbahbabi@ac2i.ma</t>
   </si>
   <si>
     <t>mohammed</t>
   </si>
   <si>
+    <t>melaynousse@ac2i.ma</t>
+  </si>
+  <si>
     <t>sanae</t>
+  </si>
+  <si>
+    <t>sbenaboubou@ac2i.ma</t>
   </si>
 </sst>
 </file>
@@ -431,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:XFD10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -479,14 +539,30 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -16852,109 +16928,283 @@
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" spans="1:16384">
-      <c r="A2" t="s">
-        <v>13</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3" spans="1:16384">
-      <c r="A3" t="s">
-        <v>13</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4" spans="1:16384">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4" t="s">
-        <v>19</v>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:16384">
+      <c r="A5">
+        <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:16384">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:16384">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:16384">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/panelsuivi_des_formations.xlsx
+++ b/panelsuivi_des_formations.xlsx
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>CATEGORIE</t>
+  </si>
+  <si>
+    <t>FORMATION</t>
+  </si>
+  <si>
+    <t>VISIBILITE</t>
+  </si>
+  <si>
+    <t>ACTIVITE</t>
+  </si>
   <si>
     <t>MATRICULE</t>
   </si>
@@ -26,10 +38,28 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>EMAIL</t>
+    <t>Etat</t>
   </si>
   <si>
-    <t>DATE_RECRUTEMENT</t>
+    <t>DATE INSCRIPTION</t>
+  </si>
+  <si>
+    <t>ETAT_FORMATION</t>
+  </si>
+  <si>
+    <t>DATE_REALISATION</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>TENTATIVE</t>
+  </si>
+  <si>
+    <t>date_recrutement</t>
+  </si>
+  <si>
+    <t>DATE_PRISE_POSTE</t>
   </si>
   <si>
     <t>CODE_EMPLOI</t>
@@ -38,34 +68,13 @@
     <t>LIBELLE_EMPLOI</t>
   </si>
   <si>
-    <t>CODE_POSTE</t>
-  </si>
-  <si>
-    <t>DATE_PRISE_POSTE</t>
-  </si>
-  <si>
-    <t>CODE_UNITE</t>
-  </si>
-  <si>
-    <t>ABSENCE</t>
-  </si>
-  <si>
-    <t>DATE_DEBUT_ABSENCE</t>
-  </si>
-  <si>
-    <t>DATE_FIN_ABSENCE</t>
+    <t>LIBELLE_POSTE</t>
   </si>
   <si>
     <t>MATRICULE_MANAGER</t>
   </si>
   <si>
-    <t>LIBELLE_DGA</t>
-  </si>
-  <si>
-    <t>LIBELLE_DIRECTION</t>
-  </si>
-  <si>
-    <t>LIBELLE_UNITE</t>
+    <t>CODE_UNITE</t>
   </si>
   <si>
     <t>DIRECTION</t>
@@ -77,25 +86,25 @@
     <t>MANAGER</t>
   </si>
   <si>
-    <t>LIBELLE_POSTE</t>
+    <t>LIBELLE_UNITE</t>
   </si>
   <si>
-    <t>Visiteur anonyme</t>
+    <t>ABSENCE</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>DEBUT_ABSENCE</t>
   </si>
   <si>
-    <t>root@localhost</t>
+    <t>FIN_ABSENCE</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Catégorie 2</t>
   </si>
   <si>
-    <t>Utilisateur</t>
+    <t>Cours catégorie 2</t>
   </si>
   <si>
-    <t>admin@ac2i.ma</t>
+    <t>Test2 Cours C2</t>
   </si>
   <si>
     <t>Youssef</t>
@@ -104,43 +113,37 @@
     <t>Elhanafi</t>
   </si>
   <si>
-    <t>yelhanafi@ac2i.ma</t>
+    <t>Actif</t>
+  </si>
+  <si>
+    <t>15/02/2019</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
   <si>
     <t>meriyem</t>
   </si>
   <si>
-    <t>marazki@ac2i.ma</t>
+    <t>Non Terminé</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Lionel</t>
   </si>
   <si>
-    <t>lmissigor@ac2i.ma</t>
-  </si>
-  <si>
     <t>siham</t>
-  </si>
-  <si>
-    <t>sezziouani@ac2i.ma</t>
-  </si>
-  <si>
-    <t>zakaria</t>
-  </si>
-  <si>
-    <t>zbahbabi@ac2i.ma</t>
   </si>
   <si>
     <t>mohammed</t>
   </si>
   <si>
-    <t>melaynousse@ac2i.ma</t>
-  </si>
-  <si>
-    <t>sanae</t>
-  </si>
-  <si>
-    <t>sbenaboubou@ac2i.ma</t>
+    <t>26/02/2019</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -563,12 +566,24 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -16928,27 +16943,45 @@
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" spans="1:16384">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
+      <c r="E2">
+        <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -16957,29 +16990,59 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:16384">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -16988,27 +17051,53 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:16384">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -17019,27 +17108,53 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -17050,27 +17165,53 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:16384">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
+      <c r="I6" t="s">
+        <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
+      <c r="J6" t="s">
+        <v>37</v>
       </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -17081,130 +17222,18 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
-    </row>
-    <row r="7" spans="1:16384">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6" t="s">
         <v>35</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-    </row>
-    <row r="8" spans="1:16384">
-      <c r="A8">
-        <v>7</v>
+      <c r="Z6" t="s">
+        <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="AA6" t="s">
+        <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-    </row>
-    <row r="9" spans="1:16384">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-    </row>
-    <row r="10" spans="1:16384">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
